--- a/w_2022.xlsx
+++ b/w_2022.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1986" uniqueCount="1828">
   <si>
-    <t>Number</t>
+    <t>Tahun</t>
   </si>
   <si>
     <t>Comments</t>
@@ -5545,23 +5545,16 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5573,61 +5566,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Aptos Narrow"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Aptos Narrow"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5641,19 +5580,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Aptos Narrow"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5672,23 +5610,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Aptos Narrow"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Aptos Narrow"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Aptos Narrow"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5703,7 +5696,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Aptos Narrow"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5718,13 +5711,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5742,25 +5795,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5772,7 +5813,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5790,31 +5849,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5832,13 +5873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5850,55 +5885,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5909,15 +5902,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -5945,6 +5929,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5956,6 +5949,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5992,15 +5994,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -6012,148 +6005,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6504,10 +6497,10 @@
   <dimension ref="A1:B1985"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A1985"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -7141,7 +7134,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" ht="175.5" spans="1:2">
+    <row r="80" ht="185.25" spans="1:2">
       <c r="A80">
         <v>2022</v>
       </c>
@@ -8141,7 +8134,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="205" ht="54" spans="1:2">
+    <row r="205" ht="57" spans="1:2">
       <c r="A205">
         <v>2022</v>
       </c>
@@ -12165,7 +12158,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="708" ht="202.5" spans="1:2">
+    <row r="708" ht="228" spans="1:2">
       <c r="A708">
         <v>2022</v>
       </c>
@@ -13997,7 +13990,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="937" ht="256.5" spans="1:2">
+    <row r="937" ht="228" spans="1:2">
       <c r="A937">
         <v>2022</v>
       </c>
@@ -15493,7 +15486,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="1124" ht="135" spans="1:2">
+    <row r="1124" ht="128.25" spans="1:2">
       <c r="A1124">
         <v>2022</v>
       </c>
@@ -16533,7 +16526,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="1254" ht="324" spans="1:2">
+    <row r="1254" ht="327.75" spans="1:2">
       <c r="A1254">
         <v>2022</v>
       </c>
@@ -17125,7 +17118,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="1328" ht="270" spans="1:2">
+    <row r="1328" ht="285" spans="1:2">
       <c r="A1328">
         <v>2022</v>
       </c>
@@ -17573,7 +17566,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="1384" ht="229.5" spans="1:2">
+    <row r="1384" ht="213.75" spans="1:2">
       <c r="A1384">
         <v>2022</v>
       </c>
@@ -17581,7 +17574,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="1385" ht="175.5" spans="1:2">
+    <row r="1385" ht="156.75" spans="1:2">
       <c r="A1385">
         <v>2022</v>
       </c>
@@ -17589,7 +17582,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="1386" ht="108" spans="1:2">
+    <row r="1386" ht="114" spans="1:2">
       <c r="A1386">
         <v>2022</v>
       </c>
@@ -19421,7 +19414,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="1615" ht="310.5" spans="1:2">
+    <row r="1615" ht="299.25" spans="1:2">
       <c r="A1615">
         <v>2022</v>
       </c>
@@ -19573,7 +19566,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="1634" ht="351" spans="1:2">
+    <row r="1634" ht="342" spans="1:2">
       <c r="A1634">
         <v>2022</v>
       </c>
@@ -20309,7 +20302,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="1726" ht="189" spans="1:2">
+    <row r="1726" ht="199.5" spans="1:2">
       <c r="A1726">
         <v>2022</v>
       </c>
